--- a/biology/Botanique/Oxalide_d'Europe/Oxalide_d'Europe.xlsx
+++ b/biology/Botanique/Oxalide_d'Europe/Oxalide_d'Europe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oxalide_d%27Europe</t>
+          <t>Oxalide_d'Europe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Oxalide dressée (Oxalis stricta) est une espèce de plantes herbacées du genre des Oxalis de la famille des Oxalidacées indigène en Amérique du Nord.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxalide_d%27Europe</t>
+          <t>Oxalide_d'Europe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante des milieux boisés frais et ombrageux, aussi retrouvée dans les prés et lieux qui ont été remués. On la trouve parfois dans les jardins, les champs et les pelouses dont le sol est un peu acide.
 C'est une plante vivace, basse, aux feuilles trifoliées, la foliole a la forme d'un cœur dont la pointe est constituée par le pétiole.
